--- a/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
+++ b/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shevn\Desktop\KnowledgeExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shevchenko.NE\Desktop\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A63C614-0E96-4D76-AF6E-AF11537A0FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7DAFA7-3776-463F-A899-D4BC3098682D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1008" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1005" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -517,18 +517,18 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -590,7 +590,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -620,7 +620,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>

--- a/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
+++ b/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shevchenko.NE\Desktop\KnowledgeExtractor\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7DAFA7-3776-463F-A899-D4BC3098682D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30D549-85BC-4129-8FD4-C9533F78F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1005" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -63,13 +63,13 @@
     <t>мм</t>
   </si>
   <si>
-    <t>название</t>
-  </si>
-  <si>
     <t>Лейкоциты</t>
   </si>
   <si>
     <t>Ж</t>
+  </si>
+  <si>
+    <t>Название</t>
   </si>
 </sst>
 </file>
@@ -517,20 +517,20 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -560,7 +560,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -575,12 +575,12 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>110</v>
@@ -590,9 +590,9 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
@@ -605,7 +605,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -620,7 +620,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -633,7 +633,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>

--- a/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
+++ b/DataSets/Таблица_Ч_имен_и_числовых_норм.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Python\KnowledgeExtractorApp\DataSets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebDev\KnowledgeExtractor\DataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F30D549-85BC-4129-8FD4-C9533F78F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F6305F-9F40-436E-8073-4BA5B4F9813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,21 +30,12 @@
     <t>Условие на пол</t>
   </si>
   <si>
-    <t>Гематокрит</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>м</t>
   </si>
   <si>
-    <t>Гемоглобин</t>
-  </si>
-  <si>
-    <t>Общий белок</t>
-  </si>
-  <si>
     <t>Ниж гр нормы</t>
   </si>
   <si>
@@ -54,19 +45,28 @@
     <t>Ед изм</t>
   </si>
   <si>
-    <t>Билирубин общий</t>
-  </si>
-  <si>
-    <t>СтенкиЖП</t>
-  </si>
-  <si>
     <t>мм</t>
   </si>
   <si>
-    <t>Лейкоциты</t>
-  </si>
-  <si>
     <t>Ж</t>
+  </si>
+  <si>
+    <t>УЗИ-СтенкиЖП, мм</t>
+  </si>
+  <si>
+    <t>Гематокрит, %</t>
+  </si>
+  <si>
+    <t>Гемоглобин, г/л</t>
+  </si>
+  <si>
+    <t>Лейкоциты, 10^9/л</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Общий белок, г/л</t>
+  </si>
+  <si>
+    <t>Билирубин общ, мкмоль/л</t>
   </si>
   <si>
     <t>Название</t>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +128,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,8 +205,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -235,8 +242,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{F608AF83-B692-40C6-B9A0-CDA794FCC8CF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -517,7 +525,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,21 +544,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="C2" s="4">
         <v>36</v>
@@ -562,10 +570,10 @@
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>120</v>
@@ -577,10 +585,10 @@
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6">
         <v>110</v>
@@ -592,10 +600,10 @@
     </row>
     <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="4">
         <v>4.5</v>
@@ -607,10 +615,10 @@
     </row>
     <row r="6" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="9">
         <v>66</v>
@@ -620,9 +628,9 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="9">
@@ -635,7 +643,7 @@
     </row>
     <row r="8" spans="1:5" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="9">
@@ -645,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
